--- a/doc/temaplate.xlsx
+++ b/doc/temaplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23837" windowHeight="11520"/>
+    <workbookView windowWidth="19037" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="temaplate" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>FullName</t>
   </si>
@@ -59,22 +59,19 @@
     <t>1@gmail.com</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Female</t>
   </si>
   <si>
     <t>1one2</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>1one3</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>one4</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1230,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72972972972973" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1302,12 +1299,12 @@
         <v>123456</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1322,12 +1319,12 @@
         <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1342,7 +1339,7 @@
         <v>123456</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/temaplate.xlsx
+++ b/doc/temaplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>FullName</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>1one1</t>
+    <t>1one11</t>
   </si>
   <si>
     <t>admin</t>
@@ -56,19 +56,28 @@
     <t>one</t>
   </si>
   <si>
-    <t>1@gmail.com</t>
+    <t>11111@gmail.com</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>1one2</t>
-  </si>
-  <si>
-    <t>1one3</t>
-  </si>
-  <si>
-    <t>one4</t>
+    <t>1one21</t>
+  </si>
+  <si>
+    <t>111211@gmail.com</t>
+  </si>
+  <si>
+    <t>1one31</t>
+  </si>
+  <si>
+    <t>111213@gmail.com</t>
+  </si>
+  <si>
+    <t>one411</t>
+  </si>
+  <si>
+    <t>111221@gmail.com</t>
   </si>
   <si>
     <t>Male</t>
@@ -687,11 +696,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,7 +1242,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72972972972973" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1292,8 +1304,8 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -1304,7 +1316,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1312,8 +1324,8 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E4">
         <v>123456</v>
@@ -1324,7 +1336,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1332,19 +1344,22 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
         <v>123456</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="1@gmail.com" tooltip="mailto:1@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="11111@gmail.com" tooltip="mailto:11111@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="111211@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="111213@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="111221@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
